--- a/source/Knowledge/Database/RMI_researchers.xlsx
+++ b/source/Knowledge/Database/RMI_researchers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschoi/work/ChatBot/Face_Detect/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschoi/work/ChatBot/FaceBot/source/Knowledge/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C98BEDFA-261B-B344-B5C8-0A485AA776F1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82967D40-7260-8D43-BD84-007E29A83B78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="4680" windowWidth="28300" windowHeight="17440" xr2:uid="{BE90FEEF-0071-3141-BA08-DDBFE6223CDC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,50 @@
   </si>
   <si>
     <t>ysmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고미라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miko@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김익재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상미디어연구단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drjay@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drjay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강성철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료로봇연구단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kasch@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kasch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F99B4F9-49F5-F348-8D5C-56FACE6FD4B9}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="174" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -934,6 +978,66 @@
       </c>
       <c r="F18" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>8302</v>
+      </c>
+      <c r="D19">
+        <v>6323</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>1347</v>
+      </c>
+      <c r="D20">
+        <v>5766</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21">
+        <v>8403</v>
+      </c>
+      <c r="D21">
+        <v>5589</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -951,6 +1055,9 @@
     <hyperlink ref="E11" r:id="rId10" xr:uid="{63054DE8-240E-D240-91BA-B50ADAE4B585}"/>
     <hyperlink ref="E13" r:id="rId11" xr:uid="{E3EA0595-21A8-8949-B2E4-3EFDA648D8AC}"/>
     <hyperlink ref="E12" r:id="rId12" xr:uid="{19BAE2DC-9A57-F64E-94A3-7F78F952C1BF}"/>
+    <hyperlink ref="E19" r:id="rId13" xr:uid="{4856AB0E-81C7-794F-9DC4-DEB210D22FA0}"/>
+    <hyperlink ref="E20" r:id="rId14" xr:uid="{54B0890A-5768-CA4A-88C3-56A86552D45B}"/>
+    <hyperlink ref="E21" r:id="rId15" xr:uid="{8998BE68-B063-8D4A-8DAD-827D9288604D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/source/Knowledge/Database/RMI_researchers.xlsx
+++ b/source/Knowledge/Database/RMI_researchers.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschoi/work/ChatBot/FaceBot/source/Knowledge/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82967D40-7260-8D43-BD84-007E29A83B78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468346F2-1682-9447-A4FA-4B25762784B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="4680" windowWidth="28300" windowHeight="17440" xr2:uid="{BE90FEEF-0071-3141-BA08-DDBFE6223CDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yuh.junku</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bhu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,6 +284,10 @@
   </si>
   <si>
     <t>kasch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuh_junku</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F99B4F9-49F5-F348-8D5C-56FACE6FD4B9}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="174" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -697,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -757,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -777,7 +777,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -797,7 +797,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -817,7 +817,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -837,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -857,7 +857,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -877,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -897,7 +897,7 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -917,7 +917,7 @@
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -937,52 +937,52 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
         <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
         <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
         <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
         <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>53</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -994,18 +994,18 @@
         <v>6323</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
         <v>58</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
       </c>
       <c r="C20">
         <v>1347</v>
@@ -1014,18 +1014,18 @@
         <v>5766</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
         <v>60</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
         <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
       </c>
       <c r="C21">
         <v>8403</v>
@@ -1034,10 +1034,10 @@
         <v>5589</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
         <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/source/Knowledge/Database/RMI_researchers.xlsx
+++ b/source/Knowledge/Database/RMI_researchers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschoi/work/ChatBot/FaceBot/source/Knowledge/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82967D40-7260-8D43-BD84-007E29A83B78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A572C-33F4-0B4A-A8F9-22FC2CA8353D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="4680" windowWidth="28300" windowHeight="17440" xr2:uid="{BE90FEEF-0071-3141-BA08-DDBFE6223CDC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>kasch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽소나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sonakwak@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sonakwak</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F99B4F9-49F5-F348-8D5C-56FACE6FD4B9}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="174" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="174" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1038,6 +1050,26 @@
       </c>
       <c r="F21" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>8421</v>
+      </c>
+      <c r="D22">
+        <v>6814</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1058,6 +1090,7 @@
     <hyperlink ref="E19" r:id="rId13" xr:uid="{4856AB0E-81C7-794F-9DC4-DEB210D22FA0}"/>
     <hyperlink ref="E20" r:id="rId14" xr:uid="{54B0890A-5768-CA4A-88C3-56A86552D45B}"/>
     <hyperlink ref="E21" r:id="rId15" xr:uid="{8998BE68-B063-8D4A-8DAD-827D9288604D}"/>
+    <hyperlink ref="E22" r:id="rId16" xr:uid="{BE83BD24-307F-A446-A8A7-90DAD59EF68E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/source/Knowledge/Database/RMI_researchers.xlsx
+++ b/source/Knowledge/Database/RMI_researchers.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschoi/work/ChatBot/FaceBot/source/Knowledge/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A572C-33F4-0B4A-A8F9-22FC2CA8353D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E1B10F-B0AE-CB42-88FC-7D7B6506E524}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="4680" windowWidth="28300" windowHeight="17440" xr2:uid="{BE90FEEF-0071-3141-BA08-DDBFE6223CDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>sonakwak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박정민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pjm@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pjm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F99B4F9-49F5-F348-8D5C-56FACE6FD4B9}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="174" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1070,6 +1082,26 @@
       </c>
       <c r="F22" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>8308</v>
+      </c>
+      <c r="D23">
+        <v>5746</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1091,6 +1123,7 @@
     <hyperlink ref="E20" r:id="rId14" xr:uid="{54B0890A-5768-CA4A-88C3-56A86552D45B}"/>
     <hyperlink ref="E21" r:id="rId15" xr:uid="{8998BE68-B063-8D4A-8DAD-827D9288604D}"/>
     <hyperlink ref="E22" r:id="rId16" xr:uid="{BE83BD24-307F-A446-A8A7-90DAD59EF68E}"/>
+    <hyperlink ref="E23" r:id="rId17" xr:uid="{F1DBB211-9665-6B49-B711-F1E2376F4390}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/source/Knowledge/Database/RMI_researchers.xlsx
+++ b/source/Knowledge/Database/RMI_researchers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschoi/work/ChatBot/FaceBot/source/Knowledge/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E1B10F-B0AE-CB42-88FC-7D7B6506E524}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCC5A67-216A-7D42-962D-6D71CDF4234E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="4680" windowWidth="28300" windowHeight="17440" xr2:uid="{BE90FEEF-0071-3141-BA08-DDBFE6223CDC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +312,66 @@
   </si>
   <si>
     <t>pjm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오상록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sroh@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sroh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유범재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ybj@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ybj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김도익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doikkim@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doikkim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김창환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ckim@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ckim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박성기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skee@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F99B4F9-49F5-F348-8D5C-56FACE6FD4B9}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="174" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="174" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1102,6 +1162,106 @@
       </c>
       <c r="F23" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>8407</v>
+      </c>
+      <c r="D24">
+        <v>5757</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>8406</v>
+      </c>
+      <c r="D25">
+        <v>5760</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>8405</v>
+      </c>
+      <c r="D26">
+        <v>5750</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>8307</v>
+      </c>
+      <c r="D27">
+        <v>6948</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>8306</v>
+      </c>
+      <c r="D28">
+        <v>5626</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1124,6 +1284,11 @@
     <hyperlink ref="E21" r:id="rId15" xr:uid="{8998BE68-B063-8D4A-8DAD-827D9288604D}"/>
     <hyperlink ref="E22" r:id="rId16" xr:uid="{BE83BD24-307F-A446-A8A7-90DAD59EF68E}"/>
     <hyperlink ref="E23" r:id="rId17" xr:uid="{F1DBB211-9665-6B49-B711-F1E2376F4390}"/>
+    <hyperlink ref="E24" r:id="rId18" xr:uid="{C68A2F28-E5C1-7546-A267-708B3198AAEF}"/>
+    <hyperlink ref="E25" r:id="rId19" xr:uid="{86F051B9-CDD3-EA48-A91B-D8C9FBBD6A67}"/>
+    <hyperlink ref="E26" r:id="rId20" xr:uid="{670EFB71-A698-AB49-A395-247A83F882F7}"/>
+    <hyperlink ref="E27" r:id="rId21" xr:uid="{95C2E845-D32C-CA41-967F-15D98F61F2E4}"/>
+    <hyperlink ref="E28" r:id="rId22" xr:uid="{4197FE2D-950A-3F45-9B14-4EC5DD1223BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/source/Knowledge/Database/RMI_researchers.xlsx
+++ b/source/Knowledge/Database/RMI_researchers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschoi/work/ChatBot/FaceBot/source/Knowledge/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCC5A67-216A-7D42-962D-6D71CDF4234E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E273ED-E098-5D4F-863D-CF34D169C661}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="4680" windowWidth="28300" windowHeight="17440" xr2:uid="{BE90FEEF-0071-3141-BA08-DDBFE6223CDC}"/>
+    <workbookView xWindow="-32220" yWindow="1680" windowWidth="28300" windowHeight="17440" xr2:uid="{BE90FEEF-0071-3141-BA08-DDBFE6223CDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lkr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dahyun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,6 +369,9 @@
   <si>
     <t>skee</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ikrrufp</t>
   </si>
 </sst>
 </file>
@@ -754,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F99B4F9-49F5-F348-8D5C-56FACE6FD4B9}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="174" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -781,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -881,7 +880,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -901,7 +900,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -921,7 +920,7 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -941,7 +940,7 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -961,7 +960,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -981,7 +980,7 @@
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1001,7 +1000,7 @@
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1021,52 +1020,52 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
         <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
         <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
         <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
         <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>53</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1078,18 +1077,18 @@
         <v>6323</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
         <v>58</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
       </c>
       <c r="C20">
         <v>1347</v>
@@ -1098,18 +1097,18 @@
         <v>5766</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
         <v>60</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
         <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
       </c>
       <c r="C21">
         <v>8403</v>
@@ -1118,15 +1117,15 @@
         <v>5589</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
         <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -1138,15 +1137,15 @@
         <v>6814</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -1158,15 +1157,15 @@
         <v>5746</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
         <v>70</v>
-      </c>
-      <c r="F23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -1178,15 +1177,15 @@
         <v>5757</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
         <v>73</v>
-      </c>
-      <c r="F24" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -1198,15 +1197,15 @@
         <v>5760</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
         <v>76</v>
-      </c>
-      <c r="F25" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -1218,15 +1217,15 @@
         <v>5750</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -1238,15 +1237,15 @@
         <v>6948</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
         <v>82</v>
-      </c>
-      <c r="F27" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -1258,10 +1257,10 @@
         <v>5626</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" t="s">
         <v>85</v>
-      </c>
-      <c r="F28" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/source/Knowledge/Database/RMI_researchers.xlsx
+++ b/source/Knowledge/Database/RMI_researchers.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschoi/work/ChatBot/FaceBot/source/Knowledge/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E273ED-E098-5D4F-863D-CF34D169C661}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC3401F-DA3A-7441-82A6-4DBBE729E46B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32220" yWindow="1680" windowWidth="28300" windowHeight="17440" xr2:uid="{BE90FEEF-0071-3141-BA08-DDBFE6223CDC}"/>
+    <workbookView xWindow="0" yWindow="1680" windowWidth="28300" windowHeight="17440" xr2:uid="{BE90FEEF-0071-3141-BA08-DDBFE6223CDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,14 @@
   </si>
   <si>
     <t>Ikrrufp</t>
+  </si>
+  <si>
+    <t>안병규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bkahn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -751,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F99B4F9-49F5-F348-8D5C-56FACE6FD4B9}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="174" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1261,6 +1269,14 @@
       </c>
       <c r="F28" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/source/Knowledge/Database/RMI_researchers.xlsx
+++ b/source/Knowledge/Database/RMI_researchers.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschoi/work/ChatBot/FaceBot/source/Knowledge/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC3401F-DA3A-7441-82A6-4DBBE729E46B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDEA5BE-1CFC-E440-AC26-C736A65DAB8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1680" windowWidth="28300" windowHeight="17440" xr2:uid="{BE90FEEF-0071-3141-BA08-DDBFE6223CDC}"/>
+    <workbookView xWindow="620" yWindow="11680" windowWidth="28300" windowHeight="17440" xr2:uid="{BE90FEEF-0071-3141-BA08-DDBFE6223CDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,54 @@
   </si>
   <si>
     <t>bkahn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박재영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jypcubic@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jypcubic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황동현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>donghyun@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>donghyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gregorykim@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gregorykim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김정훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j.h.kim@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j.h.kim</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F99B4F9-49F5-F348-8D5C-56FACE6FD4B9}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="174" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="174" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1277,6 +1325,86 @@
       </c>
       <c r="F29" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>8310</v>
+      </c>
+      <c r="D30">
+        <v>6847</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>8506</v>
+      </c>
+      <c r="D31">
+        <v>5732</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>8309</v>
+      </c>
+      <c r="D32">
+        <v>6719</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>8310</v>
+      </c>
+      <c r="D33">
+        <v>5756</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1304,6 +1432,10 @@
     <hyperlink ref="E26" r:id="rId20" xr:uid="{670EFB71-A698-AB49-A395-247A83F882F7}"/>
     <hyperlink ref="E27" r:id="rId21" xr:uid="{95C2E845-D32C-CA41-967F-15D98F61F2E4}"/>
     <hyperlink ref="E28" r:id="rId22" xr:uid="{4197FE2D-950A-3F45-9B14-4EC5DD1223BA}"/>
+    <hyperlink ref="E30" r:id="rId23" xr:uid="{36C1E7CC-8E0E-6C48-B29E-68118AA2E9F0}"/>
+    <hyperlink ref="E31" r:id="rId24" xr:uid="{9D5BC99A-04B4-E34B-BFB6-C6B3A39065E6}"/>
+    <hyperlink ref="E32" r:id="rId25" xr:uid="{25E6EAC6-6C90-AB43-AA3E-1AC64DC56969}"/>
+    <hyperlink ref="E33" r:id="rId26" xr:uid="{BFAFCBC2-ABE3-D04C-B2A0-24303D5D2FDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
